--- a/target/classes/documents/DUAN_010_04-04-31_MA.xlsx
+++ b/target/classes/documents/DUAN_010_04-04-31_MA.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B23A8B45-9FBD-4B6F-884A-F087CB6F4C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:801_{C621DA9A-A60A-4BCC-A790-4801807F946D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="19590" windowHeight="11820" firstSheet="1" activeTab="4" xr2:uid="{7D0F44A8-F3C9-4ED2-89D3-E9DDCCF8111C}"/>
+    <workbookView activeTab="3" windowHeight="11820" windowWidth="19620" xWindow="390" xr2:uid="{7D0F44A8-F3C9-4ED2-89D3-E9DDCCF8111C}" yWindow="390"/>
   </bookViews>
   <sheets>
-    <sheet name="METADATA" sheetId="1" r:id="rId1"/>
-    <sheet name="MABLN" sheetId="2" r:id="rId2"/>
-    <sheet name="MAND" sheetId="4" r:id="rId3"/>
-    <sheet name="MANC" sheetId="3" r:id="rId4"/>
-    <sheet name="MACND_withoutHeader" sheetId="5" r:id="rId5"/>
+    <sheet name="METADATA" r:id="rId1" sheetId="1"/>
+    <sheet name="MABLN" r:id="rId2" sheetId="2"/>
+    <sheet name="MAND" r:id="rId3" sheetId="4"/>
+    <sheet name="MANC" r:id="rId4" sheetId="3"/>
+    <sheet name="EXTRASHEET" r:id="rId8" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N11"/>
+  <oleSize ref="A1:O16"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="125">
   <si>
     <t>TS</t>
   </si>
@@ -141,7 +141,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>META SBXBJ,,12,DUAN,68877,2878900,928279820,OrderEvents_01.abc.df@0000040@@**shopping</t>
+    <t>META SBXBJ,,12,DUAN,68877,2878900,928279820,OrderEvents_01.abc.df@0000040@@**shoppingreport*Detailed description of all the orders*,980,898</t>
   </si>
   <si>
     <t>NEW</t>
@@ -406,6 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +441,16 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -453,22 +464,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -485,10 +497,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -523,7 +535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -575,7 +587,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -686,21 +698,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -717,7 +729,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -769,15 +781,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD04D98A-9843-404F-AFDA-277CB277DB6A}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD04D98A-9843-404F-AFDA-277CB277DB6A}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -785,51 +797,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="C2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -837,7 +849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -845,36 +857,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A770C-7146-42AB-B036-B161CBF36BC1}">
-  <dimension ref="A1:T6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A770C-7146-42AB-B036-B161CBF36BC1}">
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,6 +925,30 @@
       <c r="L1" t="s">
         <v>23</v>
       </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -976,7 +1012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -998,7 +1034,7 @@
       <c r="H3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="5">
         <v>45</v>
       </c>
       <c r="J3" t="s">
@@ -1007,13 +1043,13 @@
       <c r="K3" t="s">
         <v>47</v>
       </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="L3" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s" s="5">
         <v>45</v>
       </c>
       <c r="O3" t="s">
@@ -1035,7 +1071,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -1057,7 +1093,7 @@
       <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="5">
         <v>45</v>
       </c>
       <c r="J4" t="s">
@@ -1066,13 +1102,13 @@
       <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="L4" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s" s="5">
         <v>45</v>
       </c>
       <c r="O4" t="s">
@@ -1094,7 +1130,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -1116,7 +1152,7 @@
       <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="5">
         <v>45</v>
       </c>
       <c r="J5" t="s">
@@ -1125,13 +1161,13 @@
       <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="L5" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s" s="5">
         <v>45</v>
       </c>
       <c r="O5" t="s">
@@ -1153,7 +1189,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" t="s">
         <v>39</v>
       </c>
@@ -1175,7 +1211,7 @@
       <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="5">
         <v>45</v>
       </c>
       <c r="J6" t="s">
@@ -1184,13 +1220,13 @@
       <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="L6" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s" s="5">
         <v>45</v>
       </c>
       <c r="O6" t="s">
@@ -1214,15 +1250,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF3A304-6A92-4ABF-BBE3-DBD6E21F0F4C}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF3A304-6A92-4ABF-BBE3-DBD6E21F0F4C}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -1314,15 +1350,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1BA02A-C10C-49E7-AF7B-5B2D70C5E274}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1BA02A-C10C-49E7-AF7B-5B2D70C5E274}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1418,19 +1454,19 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B2:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -1480,7 +1516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -1527,7 +1563,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -1577,7 +1613,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" t="s">
         <v>103</v>
       </c>
@@ -1627,7 +1663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" t="s">
         <v>39</v>
       </c>
@@ -1677,7 +1713,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" t="s">
         <v>115</v>
       </c>
@@ -1724,7 +1760,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -1744,7 +1780,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" t="s">
         <v>115</v>
       </c>
@@ -1791,7 +1827,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -1811,7 +1847,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -1831,7 +1867,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" t="s">
         <v>115</v>
       </c>
@@ -1878,7 +1914,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -1899,6 +1935,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>